--- a/biology/Botanique/Louis_Secretan/Louis_Secretan.xlsx
+++ b/biology/Botanique/Louis_Secretan/Louis_Secretan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Gabriel Abraham Samuel Jean Secretan ou plus simplement Louis Secretan[1] (né le 13 septembre 1758 à Lausanne - mort dans la même ville le 24 mai 1839) est un homme politique (landamman), avocat et mycologue suisse de la seconde moitié du XVIIIe et de la première du XIXe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Gabriel Abraham Samuel Jean Secretan ou plus simplement Louis Secretan (né le 13 septembre 1758 à Lausanne - mort dans la même ville le 24 mai 1839) est un homme politique (landamman), avocat et mycologue suisse de la seconde moitié du XVIIIe et de la première du XIXe siècle.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avocat de Necker, de Benjamin Constant et de Madame de Staël, Louis Secretan a joué un rôle déterminant à la fin du Régime bernois en 1798 et lors de la fondation du canton de Vaud.
 Diplômé de l'école de droit en 1780, il entre comme avocat au bureau des patentes de Berne l'année suivante et est élu au congrès suisse. En 1798-99 et 1826-27 il est élu Président du Grand Conseil, landamman à Lausanne, membre du Conseil Général et de l'Assemblée du Canton de Vaud (Waadt). En 1831 il est nommé président de la cour d'appel.
@@ -544,7 +558,9 @@
           <t>Taxons décrits par Secretan en mycologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nota bene : parce que ses livres ne suivaient pas le système linnéen correct pour assigner des noms, les taxons décrits par Secretan ne sont pas considérés comme valides. La plupart de ses noms ne sont employés que si d'autres les ont publiés d'une façon valable.
 Amanita inaurata Secr.
@@ -587,7 +603,9 @@
           <t>Taxons dédiés à Secretan</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sphaeria secretanii Heer (1855) ; Xylariaceae
 Pholiota secretanii Fr. (1862) ; (Agaricus muricatus Secr.) Strophariaceae
